--- a/Tarea2/graficos.xlsx
+++ b/Tarea2/graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marth\OneDrive\Documents\GitHub\TAREAS_ALGORITMOS\Tarea2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE0D5CDE-60BD-4411-9E08-4E46A3E0E865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E5630-A3D0-4F12-8A65-8869B215F083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="405" windowWidth="21600" windowHeight="13755" xr2:uid="{710F34DC-D46B-4335-9896-8DE41D6A2DD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{710F34DC-D46B-4335-9896-8DE41D6A2DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1151,6 +1151,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> de bits</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1243,6 +1273,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2853,7 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C8112C-80CF-4BB1-89BC-A670EE5A0488}">
   <dimension ref="B2:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
